--- a/__tests__/test-data/result.xlsx
+++ b/__tests__/test-data/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="70">
   <si>
     <t>Q1</t>
   </si>
@@ -201,18 +201,9 @@
     <t>Q60</t>
   </si>
   <si>
-    <t>RollNo</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>CENTER</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -226,6 +217,18 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>ROLL_NO</t>
+  </si>
+  <si>
+    <t>TEST_CENTER</t>
+  </si>
+  <si>
+    <t>TEST_TIME</t>
+  </si>
+  <si>
+    <t>QUESTION_PAPER_TYPE</t>
   </si>
 </sst>
 </file>
@@ -767,6 +770,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM5" totalsRowShown="0">
+  <autoFilter ref="A1:BM5"/>
+  <tableColumns count="65">
+    <tableColumn id="1" name="Q1"/>
+    <tableColumn id="2" name="Q2"/>
+    <tableColumn id="3" name="Q3"/>
+    <tableColumn id="4" name="Q4"/>
+    <tableColumn id="5" name="Q5"/>
+    <tableColumn id="6" name="Q6"/>
+    <tableColumn id="7" name="Q7"/>
+    <tableColumn id="8" name="Q8"/>
+    <tableColumn id="9" name="Q9"/>
+    <tableColumn id="10" name="Q10"/>
+    <tableColumn id="11" name="Q11"/>
+    <tableColumn id="12" name="Q12"/>
+    <tableColumn id="13" name="Q13"/>
+    <tableColumn id="14" name="Q14"/>
+    <tableColumn id="15" name="Q15"/>
+    <tableColumn id="16" name="Q16"/>
+    <tableColumn id="17" name="Q17"/>
+    <tableColumn id="18" name="Q18"/>
+    <tableColumn id="19" name="Q19"/>
+    <tableColumn id="20" name="Q20"/>
+    <tableColumn id="21" name="Q21"/>
+    <tableColumn id="22" name="Q22"/>
+    <tableColumn id="23" name="Q23"/>
+    <tableColumn id="24" name="Q24"/>
+    <tableColumn id="25" name="Q25"/>
+    <tableColumn id="26" name="Q26"/>
+    <tableColumn id="27" name="Q27"/>
+    <tableColumn id="28" name="Q28"/>
+    <tableColumn id="29" name="Q29"/>
+    <tableColumn id="30" name="Q30"/>
+    <tableColumn id="31" name="Q31"/>
+    <tableColumn id="32" name="Q32"/>
+    <tableColumn id="33" name="Q33"/>
+    <tableColumn id="34" name="Q34"/>
+    <tableColumn id="35" name="Q35"/>
+    <tableColumn id="36" name="Q36"/>
+    <tableColumn id="37" name="Q37"/>
+    <tableColumn id="38" name="Q38"/>
+    <tableColumn id="39" name="Q39"/>
+    <tableColumn id="40" name="Q40"/>
+    <tableColumn id="41" name="Q41"/>
+    <tableColumn id="42" name="Q42"/>
+    <tableColumn id="43" name="Q43"/>
+    <tableColumn id="44" name="Q44"/>
+    <tableColumn id="45" name="Q45"/>
+    <tableColumn id="46" name="Q46"/>
+    <tableColumn id="47" name="Q47"/>
+    <tableColumn id="48" name="Q48"/>
+    <tableColumn id="49" name="Q49"/>
+    <tableColumn id="50" name="Q50"/>
+    <tableColumn id="51" name="Q51"/>
+    <tableColumn id="52" name="Q52"/>
+    <tableColumn id="53" name="Q53"/>
+    <tableColumn id="54" name="Q54"/>
+    <tableColumn id="55" name="Q55"/>
+    <tableColumn id="56" name="Q56"/>
+    <tableColumn id="57" name="Q57"/>
+    <tableColumn id="58" name="Q58"/>
+    <tableColumn id="59" name="Q59"/>
+    <tableColumn id="60" name="Q60"/>
+    <tableColumn id="61" name="ROLL_NO"/>
+    <tableColumn id="62" name="POST"/>
+    <tableColumn id="63" name="TEST_CENTER"/>
+    <tableColumn id="64" name="TEST_TIME"/>
+    <tableColumn id="65" name="QUESTION_PAPER_TYPE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,13 +1109,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL4"/>
+  <dimension ref="A1:BM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="60" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,198 +1306,201 @@
         <v>59</v>
       </c>
       <c r="BI1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
       <c r="BK1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BL1" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="X2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AD2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AH2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AK2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AO2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AP2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AQ2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AR2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AS2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AT2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AU2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AV2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AW2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AX2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AY2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AZ2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BB2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BC2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BD2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BE2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BF2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BG2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BH2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BI2">
         <v>10023</v>
@@ -1425,187 +1514,190 @@
       <c r="BL2">
         <v>1</v>
       </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AG3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AO3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AP3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AQ3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AR3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AT3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AU3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AW3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AX3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AY3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AZ3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BB3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BC3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BD3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BE3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BF3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BG3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BH3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BI3">
         <v>10024</v>
@@ -1619,187 +1711,190 @@
       <c r="BL3">
         <v>1</v>
       </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AC4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AF4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AH4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AI4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AM4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AN4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AP4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AQ4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AR4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AS4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AT4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AU4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AV4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AW4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AX4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AY4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AZ4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BB4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BC4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BD4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BE4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BF4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BG4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BH4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BI4">
         <v>10025</v>
@@ -1811,10 +1906,211 @@
         <v>1</v>
       </c>
       <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>